--- a/src/Tests/RegressionTests/Expected/AbsolutePositioning.xlsx
+++ b/src/Tests/RegressionTests/Expected/AbsolutePositioning.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <x:si>
     <x:t>Col 3</x:t>
   </x:si>
@@ -23,6 +23,9 @@
   </x:si>
   <x:si>
     <x:t>R6C5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R6C6</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -373,25 +376,28 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E6"/>
+  <x:dimension ref="A1:F6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:5">
+    <x:row r="1" spans="1:6">
       <x:c r="C1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:5">
+    <x:row r="4" spans="1:6">
       <x:c r="D4" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:5">
+    <x:row r="6" spans="1:6">
       <x:c r="E6" s="0" t="s">
         <x:v>2</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
